--- a/LF/PreTAS/Ivory Coast/May 2021/ci_lf_pretas_2_participant_202105.xlsx
+++ b/LF/PreTAS/Ivory Coast/May 2021/ci_lf_pretas_2_participant_202105.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\LF\PreTAS\Ivory Coast\May 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C6F017-80A2-4E79-89C3-B13C4DD3CF8B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D2D803-8CDE-45F9-B35A-C995F5EE5CAC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="113">
   <si>
     <t>form_title</t>
   </si>
@@ -278,9 +278,6 @@
     <t>p_code_id</t>
   </si>
   <si>
-    <t>2. Côte d'Ivoire -  Pre TAS FL Formulaire Participants</t>
-  </si>
-  <si>
     <t>Sélectionner le district</t>
   </si>
   <si>
@@ -369,6 +366,9 @@
   </si>
   <si>
     <t>Code d'identification du répondant (Veuillez recopier ce code tel qu'il est quelque part entre autre sur les test de diagnostique)</t>
+  </si>
+  <si>
+    <t>(May 2021) 2. Côte d'Ivoire -  Pre TAS FL Formulaire Participants</t>
   </si>
 </sst>
 </file>
@@ -831,10 +831,10 @@
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomRight" activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -952,14 +952,14 @@
         <v>27</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="8"/>
@@ -986,7 +986,7 @@
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="8"/>
@@ -1006,14 +1006,14 @@
         <v>27</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>39</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="8"/>
@@ -1034,14 +1034,14 @@
         <v>27</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>40</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="8"/>
@@ -1049,7 +1049,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="4" t="s">
@@ -1064,17 +1064,17 @@
         <v>27</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M7" t="s">
         <v>73</v>
@@ -1085,17 +1085,17 @@
         <v>27</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K8" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M8" s="16" t="s">
         <v>73</v>
@@ -1134,31 +1134,33 @@
         <v>25</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>106</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="J10" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="K10" s="3"/>
+      <c r="K10" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="L10" s="3"/>
       <c r="M10" s="4" t="s">
         <v>73</v>
@@ -1244,7 +1246,7 @@
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="8"/>
@@ -1276,18 +1278,18 @@
         <v>81</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F14" s="11"/>
       <c r="K14" s="1" t="s">
         <v>70</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M14" s="4" t="s">
         <v>73</v>
@@ -1389,7 +1391,7 @@
         <v>21</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1461,7 +1463,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1488,10 +1490,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2">
         <v>20210511</v>

--- a/LF/PreTAS/Ivory Coast/May 2021/ci_lf_pretas_2_participant_202105.xlsx
+++ b/LF/PreTAS/Ivory Coast/May 2021/ci_lf_pretas_2_participant_202105.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\LF\PreTAS\Ivory Coast\May 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D2D803-8CDE-45F9-B35A-C995F5EE5CAC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54ACB4DD-9B0B-4882-889D-ABAE098C753F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -302,9 +302,6 @@
     <t>Depuis combien d'années le répondant habite-t-il dans la région?</t>
   </si>
   <si>
-    <t>ci_lf_pretas_2_participant_202105_v2</t>
-  </si>
-  <si>
     <t>Site_id</t>
   </si>
   <si>
@@ -368,7 +365,10 @@
     <t>Code d'identification du répondant (Veuillez recopier ce code tel qu'il est quelque part entre autre sur les test de diagnostique)</t>
   </si>
   <si>
-    <t>(May 2021) 2. Côte d'Ivoire -  Pre TAS FL Formulaire Participants</t>
+    <t>(May 2021) 2. Côte d'Ivoire -  Pre TAS FL Formulaire Participants V3</t>
+  </si>
+  <si>
+    <t>ci_lf_pretas_2_participant_202105_v3</t>
   </si>
 </sst>
 </file>
@@ -830,11 +830,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K10" sqref="K10"/>
+      <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1006,7 +1006,7 @@
         <v>27</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>39</v>
@@ -1034,7 +1034,7 @@
         <v>27</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>40</v>
@@ -1049,7 +1049,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="4" t="s">
@@ -1064,17 +1064,17 @@
         <v>27</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M7" t="s">
         <v>73</v>
@@ -1085,17 +1085,17 @@
         <v>27</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K8" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M8" s="16" t="s">
         <v>73</v>
@@ -1134,29 +1134,29 @@
         <v>25</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>102</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>105</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="J10" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>70</v>
@@ -1282,14 +1282,14 @@
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F14" s="11"/>
       <c r="K14" s="1" t="s">
         <v>70</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M14" s="4" t="s">
         <v>73</v>
@@ -1391,7 +1391,7 @@
         <v>21</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1462,8 +1462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1490,10 +1490,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" t="s">
         <v>112</v>
-      </c>
-      <c r="B2" t="s">
-        <v>90</v>
       </c>
       <c r="C2">
         <v>20210511</v>

--- a/LF/PreTAS/Ivory Coast/May 2021/ci_lf_pretas_2_participant_202105.xlsx
+++ b/LF/PreTAS/Ivory Coast/May 2021/ci_lf_pretas_2_participant_202105.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\LF\PreTAS\Ivory Coast\May 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54ACB4DD-9B0B-4882-889D-ABAE098C753F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D69739BE-FBCC-44D1-8530-09912F20F021}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -335,27 +335,9 @@
     <t>p_num</t>
   </si>
   <si>
-    <t>Entrer le numéro d'ordre</t>
-  </si>
-  <si>
     <t>Enter the order number</t>
   </si>
   <si>
-    <t>Must be between 1 and 300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Doit être compris entre 1 et 300 </t>
-  </si>
-  <si>
-    <t>. &gt; 0 and . &lt;= 300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La valeur doit être compris entre 1 et 300 </t>
-  </si>
-  <si>
-    <t>The value must be between 1 and 300</t>
-  </si>
-  <si>
     <t>if(${p_site_name} = 'Autre', concat(${p_site_id2}, '-' ,${p_num}), concat(${p_site_id}, '-' ,${p_num}))</t>
   </si>
   <si>
@@ -365,10 +347,28 @@
     <t>Code d'identification du répondant (Veuillez recopier ce code tel qu'il est quelque part entre autre sur les test de diagnostique)</t>
   </si>
   <si>
-    <t>(May 2021) 2. Côte d'Ivoire -  Pre TAS FL Formulaire Participants V3</t>
-  </si>
-  <si>
-    <t>ci_lf_pretas_2_participant_202105_v3</t>
+    <t>ci_lf_pretas_2_participant_202105_v4</t>
+  </si>
+  <si>
+    <t>(May 2021) 2. Côte d'Ivoire -  Pre TAS FL Formulaire Participants V4</t>
+  </si>
+  <si>
+    <t>Must be between 1 and 500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doit être compris entre 1 et 500 </t>
+  </si>
+  <si>
+    <t>. &gt; 0 and . &lt;= 500</t>
+  </si>
+  <si>
+    <t>The value must be between 1 and 500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La valeur doit être compris entre 1 et 500 </t>
+  </si>
+  <si>
+    <t>Répeter le numéro d'ordre</t>
   </si>
 </sst>
 </file>
@@ -830,11 +830,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
+      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1049,7 +1049,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="4" t="s">
@@ -1137,26 +1137,26 @@
         <v>100</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>70</v>
@@ -1282,14 +1282,14 @@
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="11" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F14" s="11"/>
       <c r="K14" s="1" t="s">
         <v>70</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="M14" s="4" t="s">
         <v>73</v>
@@ -1462,8 +1462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1490,10 +1490,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C2">
         <v>20210511</v>

--- a/LF/PreTAS/Ivory Coast/May 2021/ci_lf_pretas_2_participant_202105.xlsx
+++ b/LF/PreTAS/Ivory Coast/May 2021/ci_lf_pretas_2_participant_202105.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\LF\PreTAS\Ivory Coast\May 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D69739BE-FBCC-44D1-8530-09912F20F021}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BBBDD38-58AD-4226-9C8C-B0343E970A6F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="choices" sheetId="2" r:id="rId2"/>
     <sheet name="settings" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1" iterateCount="1000" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -368,7 +368,7 @@
     <t xml:space="preserve">La valeur doit être compris entre 1 et 500 </t>
   </si>
   <si>
-    <t>Répeter le numéro d'ordre</t>
+    <t>Numéro d'ordre</t>
   </si>
 </sst>
 </file>
@@ -834,7 +834,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomRight" activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
